--- a/circle 계산법.xlsx
+++ b/circle 계산법.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_주말과정_최은희\웹개발강의_프론트엔드\강의산출물\작업\04_16_03_반응형포트폴리오_테마짜_Agency_원본_섹션5_패럴럭스_스크롤이벤트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_주말과정_최은희\웹개발강의_프론트엔드\강의산출물\작업\04_17_02_반응형포트폴리오_테마짜_Agency_원본_섹션5_패럴럭스_스크롤이벤트\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>전체길이</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,11 +33,30 @@
     <t>90%에 해당길이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>3초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료%퍼센트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="0.0000000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -98,7 +117,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -110,6 +129,15 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -391,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D2"/>
+  <dimension ref="B1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F6" sqref="F6:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -402,9 +430,10 @@
     <col min="2" max="2" width="30.75" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="31.625" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,7 +442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="2">
         <v>461.06814575195301</v>
       </c>
@@ -424,6 +453,113 @@
         <f>B2*C2</f>
         <v>414.96133117675771</v>
       </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>90</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6">
+        <f>E6/D6</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="D7" s="4">
+        <v>75</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6">
+        <f>E7/D7</f>
+        <v>0.04</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>90</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" ref="F8:F9" si="0">E8/D8</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>90</v>
+      </c>
+      <c r="D9" s="4">
+        <v>62</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
+        <v>4.8387096774193547E-2</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
